--- a/score/电子版作业成绩.xlsx
+++ b/score/电子版作业成绩.xlsx
@@ -19,918 +19,462 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
   <si>
     <t>BC18010014</t>
   </si>
   <si>
-    <t>汪海林</t>
-  </si>
-  <si>
     <t>SA18006048</t>
   </si>
   <si>
-    <t>金振超</t>
-  </si>
-  <si>
     <t>BC18010029</t>
   </si>
   <si>
-    <t>陈万鑫</t>
-  </si>
-  <si>
     <t>SA18006050</t>
   </si>
   <si>
-    <t>李润洲</t>
-  </si>
-  <si>
     <t>BC18010030</t>
   </si>
   <si>
-    <t>陈荣瀚</t>
-  </si>
-  <si>
     <t>SA18006051</t>
   </si>
   <si>
-    <t>李锡民</t>
-  </si>
-  <si>
     <t>SA17004084</t>
   </si>
   <si>
-    <t>代白杨</t>
-  </si>
-  <si>
     <t>SA18006053</t>
   </si>
   <si>
-    <t>李星泽</t>
-  </si>
-  <si>
     <t>SA17168023</t>
   </si>
   <si>
-    <t>刘俊</t>
-  </si>
-  <si>
     <t>SA18006054</t>
   </si>
   <si>
-    <t>林嵘灏</t>
-  </si>
-  <si>
     <t>SA17168030</t>
   </si>
   <si>
-    <t>郑淇蓉</t>
-  </si>
-  <si>
     <t>SA18006055</t>
   </si>
   <si>
-    <t>刘朝辞</t>
-  </si>
-  <si>
     <t>SA18003006</t>
   </si>
   <si>
-    <t>陈姊慧</t>
-  </si>
-  <si>
     <t>SA18006057</t>
   </si>
   <si>
-    <t>刘松林</t>
-  </si>
-  <si>
     <t>SA18003026</t>
   </si>
   <si>
-    <t>舒武</t>
-  </si>
-  <si>
     <t>SA18006061</t>
   </si>
   <si>
-    <t>孟建文</t>
-  </si>
-  <si>
     <t>SA18006015</t>
   </si>
   <si>
-    <t>常诗瑶</t>
-  </si>
-  <si>
     <t>SA18006062</t>
   </si>
   <si>
-    <t>穆天杰</t>
-  </si>
-  <si>
     <t>SA18006017</t>
   </si>
   <si>
-    <t>陈若云</t>
-  </si>
-  <si>
     <t>SA18006063</t>
   </si>
   <si>
-    <t>牛宏靖</t>
-  </si>
-  <si>
     <t>SA18006019</t>
   </si>
   <si>
-    <t>陈铮</t>
-  </si>
-  <si>
     <t>SA18006068</t>
   </si>
   <si>
-    <t>齐鸿</t>
-  </si>
-  <si>
     <t>SA18006020</t>
   </si>
   <si>
-    <t>陈卓为</t>
-  </si>
-  <si>
     <t>SA18006069</t>
   </si>
   <si>
-    <t>尚晓磊</t>
-  </si>
-  <si>
     <t>SA18006021</t>
   </si>
   <si>
-    <t>程迪</t>
-  </si>
-  <si>
     <t>SA18006070</t>
   </si>
   <si>
-    <t>孙思聪</t>
-  </si>
-  <si>
     <t>SA18006022</t>
   </si>
   <si>
-    <t>邓宽</t>
-  </si>
-  <si>
     <t>SA18006071</t>
   </si>
   <si>
-    <t>谭浩</t>
-  </si>
-  <si>
     <t>SA18006024</t>
   </si>
   <si>
-    <t>丁斯昊</t>
-  </si>
-  <si>
     <t>SA18006075</t>
   </si>
   <si>
-    <t>王学良</t>
-  </si>
-  <si>
     <t>SA18006025</t>
   </si>
   <si>
-    <t>董露</t>
-  </si>
-  <si>
     <t>SA18006076</t>
   </si>
   <si>
-    <t>王一帆</t>
-  </si>
-  <si>
     <t>SA18006027</t>
   </si>
   <si>
-    <t>封召</t>
-  </si>
-  <si>
     <t>SA18006079</t>
   </si>
   <si>
-    <t>魏晓东</t>
-  </si>
-  <si>
     <t>SA18006030</t>
   </si>
   <si>
-    <t>冯愚桐</t>
-  </si>
-  <si>
     <t>SA18006082</t>
   </si>
   <si>
-    <t>席茂</t>
-  </si>
-  <si>
     <t>SA18006031</t>
   </si>
   <si>
-    <t>符子龙</t>
-  </si>
-  <si>
     <t>SA18006087</t>
   </si>
   <si>
-    <t>杨特</t>
-  </si>
-  <si>
     <t>SA18006034</t>
   </si>
   <si>
-    <t>葛晓凯</t>
-  </si>
-  <si>
     <t>SA18006089</t>
   </si>
   <si>
-    <t>易焱</t>
-  </si>
-  <si>
     <t>SA18006035</t>
   </si>
   <si>
-    <t>龚晋瑜</t>
-  </si>
-  <si>
     <t>SA18006090</t>
   </si>
   <si>
-    <t>殷毓培</t>
-  </si>
-  <si>
     <t>SA18006042</t>
   </si>
   <si>
-    <t>侯振杰</t>
-  </si>
-  <si>
     <t>SA18006091</t>
   </si>
   <si>
-    <t>于大洋</t>
-  </si>
-  <si>
     <t>SA18006043</t>
   </si>
   <si>
-    <t>胡鹤臻</t>
-  </si>
-  <si>
     <t>SA18006092</t>
   </si>
   <si>
-    <t>于尊瑞</t>
-  </si>
-  <si>
     <t>SA18006045</t>
   </si>
   <si>
-    <t>黄杰</t>
-  </si>
-  <si>
     <t>SA18006094</t>
   </si>
   <si>
-    <t>张立成</t>
-  </si>
-  <si>
     <t>SA18006046</t>
   </si>
   <si>
-    <t>黄炜</t>
-  </si>
-  <si>
     <t>SA18006096</t>
   </si>
   <si>
-    <t>张翼腾</t>
-  </si>
-  <si>
     <t>SA18006097</t>
   </si>
   <si>
-    <t>张占秋</t>
-  </si>
-  <si>
     <t>SA18006140</t>
   </si>
   <si>
-    <t>吴宁谦</t>
-  </si>
-  <si>
     <t>SA18006100</t>
   </si>
   <si>
-    <t>赵鉴</t>
-  </si>
-  <si>
     <t>SA18006144</t>
   </si>
   <si>
-    <t>杨文强</t>
-  </si>
-  <si>
     <t>SA18006101</t>
   </si>
   <si>
-    <t>周生龙</t>
-  </si>
-  <si>
     <t>SA18006145</t>
   </si>
   <si>
-    <t>姚命宏</t>
-  </si>
-  <si>
     <t>SA18006103</t>
   </si>
   <si>
-    <t>朱宏民</t>
-  </si>
-  <si>
     <t>SA18006146</t>
   </si>
   <si>
-    <t>姚鑫</t>
-  </si>
-  <si>
     <t>SA18006105</t>
   </si>
   <si>
-    <t>邹赫</t>
-  </si>
-  <si>
     <t>SA18006148</t>
   </si>
   <si>
-    <t>张雯圆</t>
-  </si>
-  <si>
     <t>SA18006106</t>
   </si>
   <si>
-    <t>左煜昆</t>
-  </si>
-  <si>
     <t>SA18006149</t>
   </si>
   <si>
-    <t>张颖文</t>
-  </si>
-  <si>
     <t>SA18006107</t>
   </si>
   <si>
-    <t>蔡兴蔚</t>
-  </si>
-  <si>
     <t>SA18006150</t>
   </si>
   <si>
-    <t>赵恒锐</t>
-  </si>
-  <si>
     <t>SA18006109</t>
   </si>
   <si>
-    <t>陈志坤</t>
-  </si>
-  <si>
     <t>SA18006151</t>
   </si>
   <si>
-    <t>郑承金</t>
-  </si>
-  <si>
     <t>SA18006110</t>
   </si>
   <si>
-    <t>丁枫林</t>
-  </si>
-  <si>
     <t>SA18006152</t>
   </si>
   <si>
-    <t>郑琢</t>
-  </si>
-  <si>
     <t>SA18006111</t>
   </si>
   <si>
-    <t>董潇逸</t>
-  </si>
-  <si>
     <t>SA18006156</t>
   </si>
   <si>
-    <t>程自强</t>
-  </si>
-  <si>
     <t>SA18006113</t>
   </si>
   <si>
-    <t>房红强</t>
-  </si>
-  <si>
     <t>SA18006158</t>
   </si>
   <si>
-    <t>郭俊遥</t>
-  </si>
-  <si>
     <t>SA18006117</t>
   </si>
   <si>
-    <t>金铭</t>
-  </si>
-  <si>
     <t>SA18006160</t>
   </si>
   <si>
-    <t>黄晨耕</t>
-  </si>
-  <si>
     <t>SA18006118</t>
   </si>
   <si>
-    <t>孔嘉伟</t>
-  </si>
-  <si>
     <t>SA18006161</t>
   </si>
   <si>
-    <t>黄秋晨</t>
-  </si>
-  <si>
     <t>SA18006121</t>
   </si>
   <si>
-    <t>刘进学</t>
-  </si>
-  <si>
     <t>SA18006165</t>
   </si>
   <si>
-    <t>李德运</t>
-  </si>
-  <si>
     <t>SA18006123</t>
   </si>
   <si>
-    <t>吕扬</t>
-  </si>
-  <si>
     <t>SA18006166</t>
   </si>
   <si>
-    <t>李根</t>
-  </si>
-  <si>
     <t>SA18006124</t>
   </si>
   <si>
-    <t>孟令辉</t>
-  </si>
-  <si>
     <t>SA18006168</t>
   </si>
   <si>
-    <t>李林聪</t>
-  </si>
-  <si>
     <t>SA18006128</t>
   </si>
   <si>
-    <t>孙海舟</t>
-  </si>
-  <si>
     <t>SA18006169</t>
   </si>
   <si>
-    <t>李攀登</t>
-  </si>
-  <si>
     <t>SA18006130</t>
   </si>
   <si>
-    <t>唐鑫</t>
-  </si>
-  <si>
     <t>SA18006170</t>
   </si>
   <si>
-    <t>李秦禾子</t>
-  </si>
-  <si>
     <t>SA18006131</t>
   </si>
   <si>
-    <t>田航宇</t>
-  </si>
-  <si>
     <t>SA18006171</t>
   </si>
   <si>
-    <t>李晓梅</t>
-  </si>
-  <si>
     <t>SA18006132</t>
   </si>
   <si>
-    <t>万凯</t>
-  </si>
-  <si>
     <t>SA18006172</t>
   </si>
   <si>
-    <t>刘梦冰</t>
-  </si>
-  <si>
     <t>SA18006133</t>
   </si>
   <si>
-    <t>汪平</t>
-  </si>
-  <si>
     <t>SA18006177</t>
   </si>
   <si>
-    <t>宋路川</t>
-  </si>
-  <si>
     <t>SA18006134</t>
   </si>
   <si>
-    <t>王绘</t>
-  </si>
-  <si>
     <t>SA18006178</t>
   </si>
   <si>
-    <t>宋曼</t>
-  </si>
-  <si>
     <t>SA18006136</t>
   </si>
   <si>
-    <t>王凯</t>
-  </si>
-  <si>
     <t>SA18006182</t>
   </si>
   <si>
-    <t>王伟</t>
-  </si>
-  <si>
     <t>SA18006137</t>
   </si>
   <si>
-    <t>王先敏</t>
-  </si>
-  <si>
     <t>SA18006186</t>
   </si>
   <si>
-    <t>徐本峰</t>
-  </si>
-  <si>
     <t>SA18006138</t>
   </si>
   <si>
-    <t>魏承承</t>
-  </si>
-  <si>
     <t>SA18006187</t>
   </si>
   <si>
-    <t>徐静远</t>
-  </si>
-  <si>
     <t>SA18006193</t>
   </si>
   <si>
-    <t>周靖淞</t>
-  </si>
-  <si>
     <t>SA18033024</t>
   </si>
   <si>
-    <t>冯鸣啸</t>
-  </si>
-  <si>
     <t>SA18008095</t>
   </si>
   <si>
-    <t>陈耀晞</t>
-  </si>
-  <si>
     <t>SA18033032</t>
   </si>
   <si>
-    <t>胡明哲</t>
-  </si>
-  <si>
     <t>SA18010002</t>
   </si>
   <si>
-    <t>鲍裕麟</t>
-  </si>
-  <si>
     <t>SA18033036</t>
   </si>
   <si>
-    <t>李梦涵</t>
-  </si>
-  <si>
     <t>SA18010011</t>
   </si>
   <si>
-    <t>冯巍巍</t>
-  </si>
-  <si>
     <t>SA18033042</t>
   </si>
   <si>
-    <t>鲁厅厅</t>
-  </si>
-  <si>
     <t>SA18010016</t>
   </si>
   <si>
-    <t>蒋慧敏</t>
-  </si>
-  <si>
     <t>SA18033047</t>
   </si>
   <si>
-    <t>佟欣欣</t>
-  </si>
-  <si>
     <t>SA18010025</t>
   </si>
   <si>
-    <t>李志强</t>
-  </si>
-  <si>
     <t>SA18033056</t>
   </si>
   <si>
-    <t>吴文丽</t>
-  </si>
-  <si>
     <t>SA18010028</t>
   </si>
   <si>
-    <t>刘钦颖</t>
-  </si>
-  <si>
     <t>SA18033059</t>
   </si>
   <si>
-    <t>杨瑞</t>
-  </si>
-  <si>
     <t>SA18010030</t>
   </si>
   <si>
-    <t>陆家尧</t>
-  </si>
-  <si>
     <t>SA18033060</t>
   </si>
   <si>
-    <t>杨尚彤</t>
-  </si>
-  <si>
     <t>SA18010031</t>
   </si>
   <si>
-    <t>骆正权</t>
-  </si>
-  <si>
     <t>SA18168149</t>
   </si>
   <si>
-    <t>丁伟</t>
-  </si>
-  <si>
     <t>SA18010035</t>
   </si>
   <si>
-    <t>史雅雅</t>
-  </si>
-  <si>
     <t>SA18168150</t>
   </si>
   <si>
-    <t>刘成财</t>
-  </si>
-  <si>
     <t>SA18010037</t>
   </si>
   <si>
-    <t>王秉科</t>
-  </si>
-  <si>
     <t>SA18168163</t>
   </si>
   <si>
-    <t>杜沈达</t>
-  </si>
-  <si>
     <t>SA18010060</t>
   </si>
   <si>
-    <t>翟红雨</t>
-  </si>
-  <si>
     <t>SA18168181</t>
   </si>
   <si>
-    <t>张晏慈</t>
-  </si>
-  <si>
     <t>SA18010063</t>
   </si>
   <si>
-    <t>赵宇澄</t>
-  </si>
-  <si>
     <t>SA18168239</t>
   </si>
   <si>
-    <t>李经宇</t>
-  </si>
-  <si>
     <t>SA18010072</t>
   </si>
   <si>
-    <t>靳路康</t>
-  </si>
-  <si>
     <t>SA18168255</t>
   </si>
   <si>
-    <t>廖捷</t>
-  </si>
-  <si>
     <t>SA18010084</t>
   </si>
   <si>
-    <t>王梦永</t>
-  </si>
-  <si>
     <t>SA18168268</t>
   </si>
   <si>
-    <t>周靖洋</t>
-  </si>
-  <si>
     <t>SA18010091</t>
   </si>
   <si>
-    <t>谢皓年</t>
-  </si>
-  <si>
     <t>SA18219037</t>
   </si>
   <si>
-    <t>鲍伟超</t>
-  </si>
-  <si>
     <t>SA18010115</t>
   </si>
   <si>
-    <t>余岸</t>
-  </si>
-  <si>
     <t>SA18219042</t>
   </si>
   <si>
-    <t>陈瑞典</t>
-  </si>
-  <si>
     <t>SA18010116</t>
   </si>
   <si>
-    <t>张家玮</t>
-  </si>
-  <si>
     <t>SA18219100</t>
   </si>
   <si>
-    <t>郑煜明</t>
-  </si>
-  <si>
     <t>SA18023007</t>
   </si>
   <si>
-    <t>刘庆泽</t>
-  </si>
-  <si>
     <t>SA18229024</t>
   </si>
   <si>
-    <t>杨丽</t>
-  </si>
-  <si>
     <t>SA18023013</t>
   </si>
   <si>
-    <t>王堃</t>
-  </si>
-  <si>
     <t>SC18023041</t>
   </si>
   <si>
-    <t>王艺</t>
-  </si>
-  <si>
     <t>SA18033003</t>
   </si>
   <si>
-    <t>葛文婷</t>
-  </si>
-  <si>
     <t>SC18023061</t>
   </si>
   <si>
-    <t>李怀乾</t>
-  </si>
-  <si>
     <t>SA18033010</t>
   </si>
   <si>
-    <t>马泽华</t>
-  </si>
-  <si>
     <t>SC18023062</t>
   </si>
   <si>
-    <t>虞歆龙</t>
-  </si>
-  <si>
     <t>SA18033012</t>
   </si>
   <si>
-    <t>唐明宇</t>
-  </si>
-  <si>
     <t>SC18023063</t>
   </si>
   <si>
-    <t>朱金磊</t>
-  </si>
-  <si>
     <t>SA18033013</t>
   </si>
   <si>
-    <t>田萌</t>
-  </si>
-  <si>
     <t>SC18023083</t>
   </si>
   <si>
-    <t>孙兴哲</t>
-  </si>
-  <si>
     <t>SA18033015</t>
   </si>
   <si>
-    <t>夏秋冬</t>
-  </si>
-  <si>
     <t>SC18023084</t>
   </si>
   <si>
-    <t>黄遵祥</t>
-  </si>
-  <si>
     <t>SC18023086</t>
   </si>
   <si>
-    <t>后羿</t>
-  </si>
-  <si>
     <t>SC18023090</t>
-  </si>
-  <si>
-    <t>王雨菡</t>
   </si>
   <si>
     <t>编号</t>
@@ -938,10 +482,6 @@
   </si>
   <si>
     <t>学号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1367,189 +907,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K163"/>
+  <dimension ref="A1:J163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>304</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>306</v>
+        <v>153</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>307</v>
+        <v>155</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>308</v>
+        <v>156</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>309</v>
+        <v>157</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>310</v>
+        <v>158</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="C2" s="6">
+        <v>10</v>
+      </c>
+      <c r="D2">
         <v>10</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2">
-        <v>9</v>
-      </c>
-      <c r="I2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>10</v>
+      </c>
+      <c r="D3">
         <v>10</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3">
-        <v>9</v>
-      </c>
-      <c r="I3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="6">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6">
+        <v>10</v>
+      </c>
+      <c r="D6">
         <v>10</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6">
-        <v>9</v>
-      </c>
-      <c r="I6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="6">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6">
+        <v>10</v>
+      </c>
+      <c r="D8">
         <v>10</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -1557,57 +1075,51 @@
       <c r="H8">
         <v>10</v>
       </c>
-      <c r="I8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="6">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6">
+        <v>10</v>
+      </c>
+      <c r="D9">
         <v>10</v>
       </c>
       <c r="E9">
         <v>10</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H9">
         <v>10</v>
       </c>
-      <c r="I9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="6">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6">
+        <v>10</v>
+      </c>
+      <c r="D10">
         <v>10</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -1615,57 +1127,51 @@
       <c r="H10">
         <v>10</v>
       </c>
-      <c r="I10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="6">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6">
+        <v>10</v>
+      </c>
+      <c r="D11">
         <v>10</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11">
         <v>9</v>
       </c>
       <c r="H11">
-        <v>9</v>
-      </c>
-      <c r="I11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="6">
+        <v>20</v>
+      </c>
+      <c r="C12" s="6">
+        <v>10</v>
+      </c>
+      <c r="D12">
         <v>10</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>10</v>
@@ -1673,50 +1179,44 @@
       <c r="H12">
         <v>10</v>
       </c>
-      <c r="I12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="6">
+        <v>22</v>
+      </c>
+      <c r="C13" s="6">
+        <v>10</v>
+      </c>
+      <c r="D13">
         <v>10</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H13">
-        <v>8</v>
-      </c>
-      <c r="I13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="6">
+        <v>24</v>
+      </c>
+      <c r="C14" s="6">
+        <v>10</v>
+      </c>
+      <c r="D14">
         <v>10</v>
       </c>
       <c r="E14">
@@ -1731,43 +1231,51 @@
       <c r="H14">
         <v>10</v>
       </c>
-      <c r="I14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="C15" s="6">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
       <c r="H15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="6">
+        <v>28</v>
+      </c>
+      <c r="C16" s="6">
+        <v>10</v>
+      </c>
+      <c r="D16">
         <v>10</v>
       </c>
       <c r="E16">
         <v>10</v>
       </c>
       <c r="F16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16">
         <v>9</v>
@@ -1775,51 +1283,45 @@
       <c r="H16">
         <v>9</v>
       </c>
-      <c r="I16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="6">
+        <v>30</v>
+      </c>
+      <c r="C17" s="6">
+        <v>10</v>
+      </c>
+      <c r="D17">
         <v>10</v>
       </c>
       <c r="E17">
         <v>10</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>9</v>
       </c>
       <c r="H17">
-        <v>9</v>
-      </c>
-      <c r="I17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="6">
-        <v>10</v>
+        <v>32</v>
+      </c>
+      <c r="C18" s="6">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
       </c>
       <c r="E18">
         <v>9</v>
@@ -1831,30 +1333,27 @@
         <v>9</v>
       </c>
       <c r="H18">
-        <v>9</v>
-      </c>
-      <c r="I18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="6">
-        <v>9</v>
+        <v>34</v>
+      </c>
+      <c r="C19" s="6">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
       </c>
       <c r="E19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G19">
         <v>8</v>
@@ -1862,112 +1361,100 @@
       <c r="H19">
         <v>8</v>
       </c>
-      <c r="I19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="6">
-        <v>10</v>
+        <v>36</v>
+      </c>
+      <c r="C20" s="6">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
       </c>
       <c r="E20">
         <v>8</v>
       </c>
       <c r="F20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H20">
-        <v>10</v>
-      </c>
-      <c r="I20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="6">
+        <v>38</v>
+      </c>
+      <c r="C21" s="6">
+        <v>10</v>
+      </c>
+      <c r="D21">
         <v>10</v>
       </c>
       <c r="E21">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H21">
         <v>10</v>
       </c>
-      <c r="I21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="6">
+        <v>40</v>
+      </c>
+      <c r="C22" s="6">
+        <v>10</v>
+      </c>
+      <c r="D22">
         <v>10</v>
       </c>
       <c r="E22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G22">
         <v>9</v>
       </c>
       <c r="H22">
-        <v>9</v>
-      </c>
-      <c r="I22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="6">
+        <v>42</v>
+      </c>
+      <c r="C23" s="6">
+        <v>10</v>
+      </c>
+      <c r="D23">
         <v>10</v>
       </c>
       <c r="E23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23">
         <v>9</v>
@@ -1976,209 +1463,185 @@
         <v>9</v>
       </c>
       <c r="H23">
-        <v>9</v>
-      </c>
-      <c r="I23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="6">
+        <v>44</v>
+      </c>
+      <c r="C24" s="6">
+        <v>10</v>
+      </c>
+      <c r="D24">
         <v>10</v>
       </c>
       <c r="E24">
         <v>10</v>
       </c>
       <c r="F24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G24">
         <v>9</v>
       </c>
       <c r="H24">
-        <v>9</v>
-      </c>
-      <c r="I24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="6">
+        <v>46</v>
+      </c>
+      <c r="C25" s="6">
+        <v>10</v>
+      </c>
+      <c r="D25">
         <v>10</v>
       </c>
       <c r="E25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25">
         <v>9</v>
       </c>
       <c r="G25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H25">
         <v>10</v>
       </c>
-      <c r="I25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" s="6">
+        <v>48</v>
+      </c>
+      <c r="C26" s="6">
+        <v>10</v>
+      </c>
+      <c r="D26">
         <v>10</v>
       </c>
       <c r="E26">
         <v>10</v>
       </c>
       <c r="F26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G26">
         <v>9</v>
       </c>
       <c r="H26">
-        <v>9</v>
-      </c>
-      <c r="I26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="6">
-        <v>10</v>
-      </c>
-      <c r="E27">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="C27" s="6">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="G27">
+        <v>9</v>
       </c>
       <c r="H27">
         <v>9</v>
       </c>
-      <c r="I27">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="6">
-        <v>9</v>
-      </c>
-      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="C28" s="6">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>9</v>
+      </c>
+      <c r="G28">
         <v>9</v>
       </c>
       <c r="H28">
         <v>9</v>
       </c>
-      <c r="I28">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="6">
-        <v>10</v>
-      </c>
-      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="C29" s="6">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>9</v>
+      </c>
+      <c r="G29">
         <v>9</v>
       </c>
       <c r="H29">
         <v>9</v>
       </c>
-      <c r="I29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="7">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="C30" s="7">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
       </c>
       <c r="E30">
-        <v>10</v>
-      </c>
-      <c r="F30">
         <v>7</v>
       </c>
-      <c r="I30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="6">
+        <v>9</v>
+      </c>
+      <c r="C31" s="6">
+        <v>10</v>
+      </c>
+      <c r="D31">
         <v>10</v>
       </c>
       <c r="E31">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F31">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G31">
         <v>10</v>
@@ -2186,57 +1649,51 @@
       <c r="H31">
         <v>10</v>
       </c>
-      <c r="I31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="6">
+        <v>11</v>
+      </c>
+      <c r="C32" s="6">
+        <v>10</v>
+      </c>
+      <c r="D32">
         <v>10</v>
       </c>
       <c r="E32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G32">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H32">
-        <v>8</v>
-      </c>
-      <c r="I32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="6">
+        <v>13</v>
+      </c>
+      <c r="C33" s="6">
+        <v>10</v>
+      </c>
+      <c r="D33">
         <v>10</v>
       </c>
       <c r="E33">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F33">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G33">
         <v>10</v>
@@ -2244,21 +1701,18 @@
       <c r="H33">
         <v>10</v>
       </c>
-      <c r="I33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="6">
+        <v>15</v>
+      </c>
+      <c r="C34" s="6">
+        <v>10</v>
+      </c>
+      <c r="D34">
         <v>10</v>
       </c>
       <c r="E34">
@@ -2268,30 +1722,27 @@
         <v>10</v>
       </c>
       <c r="G34">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H34">
-        <v>8</v>
-      </c>
-      <c r="I34">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="6">
+        <v>17</v>
+      </c>
+      <c r="C35" s="6">
+        <v>10</v>
+      </c>
+      <c r="D35">
         <v>10</v>
       </c>
       <c r="E35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F35">
         <v>9</v>
@@ -2300,30 +1751,27 @@
         <v>9</v>
       </c>
       <c r="H35">
-        <v>9</v>
-      </c>
-      <c r="I35">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="6">
+        <v>19</v>
+      </c>
+      <c r="C36" s="6">
+        <v>10</v>
+      </c>
+      <c r="D36">
         <v>10</v>
       </c>
       <c r="E36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F36">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G36">
         <v>10</v>
@@ -2331,28 +1779,25 @@
       <c r="H36">
         <v>10</v>
       </c>
-      <c r="I36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="6">
+        <v>21</v>
+      </c>
+      <c r="C37" s="6">
+        <v>10</v>
+      </c>
+      <c r="D37">
         <v>10</v>
       </c>
       <c r="E37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G37">
         <v>10</v>
@@ -2360,36 +1805,30 @@
       <c r="H37">
         <v>10</v>
       </c>
-      <c r="I37">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="E38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" s="6">
+        <v>25</v>
+      </c>
+      <c r="C39" s="6">
+        <v>10</v>
+      </c>
+      <c r="D39">
         <v>10</v>
       </c>
       <c r="E39">
@@ -2404,108 +1843,96 @@
       <c r="H39">
         <v>10</v>
       </c>
-      <c r="I39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" s="6">
-        <v>9</v>
+        <v>27</v>
+      </c>
+      <c r="C40" s="6">
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <v>8</v>
       </c>
       <c r="E40">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F40">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G40">
         <v>8</v>
       </c>
       <c r="H40">
-        <v>8</v>
-      </c>
-      <c r="I40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="6">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="C41" s="6">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>9</v>
       </c>
       <c r="E41">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F41">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G41">
         <v>8</v>
       </c>
       <c r="H41">
-        <v>8</v>
-      </c>
-      <c r="I41">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D42" s="6">
-        <v>8</v>
+        <v>31</v>
+      </c>
+      <c r="C42" s="6">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>9</v>
       </c>
       <c r="E42">
         <v>9</v>
       </c>
       <c r="F42">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G42">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H42">
         <v>8</v>
       </c>
-      <c r="I42">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" s="6">
+        <v>33</v>
+      </c>
+      <c r="C43" s="6">
+        <v>10</v>
+      </c>
+      <c r="D43">
         <v>10</v>
       </c>
       <c r="E43">
@@ -2515,87 +1942,75 @@
         <v>10</v>
       </c>
       <c r="G43">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H43">
         <v>9</v>
       </c>
-      <c r="I43">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D44" s="6">
+        <v>35</v>
+      </c>
+      <c r="C44" s="6">
+        <v>9</v>
+      </c>
+      <c r="D44">
         <v>9</v>
       </c>
       <c r="E44">
         <v>9</v>
       </c>
-      <c r="F44">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D45" s="6">
-        <v>10</v>
+        <v>37</v>
+      </c>
+      <c r="C45" s="6">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
       </c>
       <c r="E45">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F45">
         <v>10</v>
       </c>
       <c r="G45">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H45">
-        <v>9</v>
-      </c>
-      <c r="I45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D47" s="6">
+        <v>41</v>
+      </c>
+      <c r="C47" s="6">
+        <v>10</v>
+      </c>
+      <c r="D47">
         <v>10</v>
       </c>
       <c r="E47">
@@ -2610,54 +2025,48 @@
       <c r="H47">
         <v>10</v>
       </c>
-      <c r="I47">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D48" s="6">
-        <v>10</v>
+        <v>43</v>
+      </c>
+      <c r="C48" s="6">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>9</v>
       </c>
       <c r="E48">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F48">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G48">
         <v>9</v>
       </c>
       <c r="H48">
-        <v>9</v>
-      </c>
-      <c r="I48">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D49" s="6">
+        <v>45</v>
+      </c>
+      <c r="C49" s="6">
+        <v>10</v>
+      </c>
+      <c r="D49">
         <v>10</v>
       </c>
       <c r="E49">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F49">
         <v>9</v>
@@ -2668,21 +2077,18 @@
       <c r="H49">
         <v>9</v>
       </c>
-      <c r="I49">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D50" s="6">
+        <v>47</v>
+      </c>
+      <c r="C50" s="6">
+        <v>10</v>
+      </c>
+      <c r="D50">
         <v>10</v>
       </c>
       <c r="E50">
@@ -2692,62 +2098,56 @@
         <v>10</v>
       </c>
       <c r="G50">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H50">
-        <v>9</v>
-      </c>
-      <c r="I50">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D51" s="6">
+        <v>49</v>
+      </c>
+      <c r="C51" s="6">
+        <v>9</v>
+      </c>
+      <c r="D51">
         <v>9</v>
       </c>
       <c r="E51">
         <v>9</v>
       </c>
       <c r="F51">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G51">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H51">
-        <v>9</v>
-      </c>
-      <c r="I51">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D52" s="6">
+        <v>50</v>
+      </c>
+      <c r="C52" s="6">
+        <v>9</v>
+      </c>
+      <c r="D52">
         <v>9</v>
       </c>
       <c r="E52">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F52">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G52">
         <v>9</v>
@@ -2755,115 +2155,103 @@
       <c r="H52">
         <v>9</v>
       </c>
-      <c r="I52">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D53" s="6">
+        <v>52</v>
+      </c>
+      <c r="C53" s="6">
+        <v>9</v>
+      </c>
+      <c r="D53">
         <v>9</v>
       </c>
       <c r="E53">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F53">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G53">
         <v>9</v>
       </c>
       <c r="H53">
-        <v>9</v>
-      </c>
-      <c r="I53">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D54" s="6">
-        <v>10</v>
+        <v>54</v>
+      </c>
+      <c r="C54" s="6">
+        <v>10</v>
+      </c>
+      <c r="D54">
+        <v>9</v>
       </c>
       <c r="E54">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F54">
         <v>10</v>
       </c>
       <c r="G54">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H54">
-        <v>8</v>
-      </c>
-      <c r="I54">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D55" s="6">
-        <v>9</v>
+        <v>56</v>
+      </c>
+      <c r="C55" s="6">
+        <v>9</v>
+      </c>
+      <c r="D55">
+        <v>8</v>
       </c>
       <c r="E55">
         <v>8</v>
       </c>
       <c r="F55">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G55">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H55">
-        <v>9</v>
-      </c>
-      <c r="I55">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D56" s="6">
-        <v>9</v>
+        <v>58</v>
+      </c>
+      <c r="C56" s="6">
+        <v>9</v>
+      </c>
+      <c r="D56">
+        <v>8</v>
       </c>
       <c r="E56">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F56">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G56">
         <v>10</v>
@@ -2871,25 +2259,22 @@
       <c r="H56">
         <v>10</v>
       </c>
-      <c r="I56">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D57" s="6">
+        <v>60</v>
+      </c>
+      <c r="C57" s="6">
         <v>7</v>
       </c>
+      <c r="D57">
+        <v>7</v>
+      </c>
       <c r="E57">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F57">
         <v>8</v>
@@ -2900,228 +2285,204 @@
       <c r="H57">
         <v>8</v>
       </c>
-      <c r="I57">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D58" s="6">
-        <v>10</v>
+        <v>62</v>
+      </c>
+      <c r="C58" s="6">
+        <v>10</v>
+      </c>
+      <c r="D58">
+        <v>9</v>
       </c>
       <c r="E58">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F58">
         <v>10</v>
       </c>
       <c r="G58">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H58">
         <v>9</v>
       </c>
-      <c r="I58">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D59" s="6">
-        <v>10</v>
+        <v>64</v>
+      </c>
+      <c r="C59" s="6">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>8</v>
       </c>
       <c r="E59">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F59">
         <v>10</v>
       </c>
       <c r="G59">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H59">
         <v>8</v>
       </c>
-      <c r="I59">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D60" s="6">
-        <v>10</v>
+        <v>66</v>
+      </c>
+      <c r="C60" s="6">
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <v>8</v>
       </c>
       <c r="E60">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F60">
         <v>10</v>
       </c>
       <c r="G60">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H60">
         <v>9</v>
       </c>
-      <c r="I60">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D61" s="6">
-        <v>10</v>
+        <v>68</v>
+      </c>
+      <c r="C61" s="6">
+        <v>10</v>
+      </c>
+      <c r="D61">
+        <v>8</v>
       </c>
       <c r="E61">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F61">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G61">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H61">
         <v>9</v>
       </c>
-      <c r="I61">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D62" s="6">
-        <v>10</v>
+        <v>70</v>
+      </c>
+      <c r="C62" s="6">
+        <v>10</v>
+      </c>
+      <c r="D62">
+        <v>8</v>
       </c>
       <c r="E62">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F62">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G62">
         <v>8</v>
       </c>
       <c r="H62">
-        <v>8</v>
-      </c>
-      <c r="I62">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D63" s="6">
-        <v>10</v>
+        <v>72</v>
+      </c>
+      <c r="C63" s="6">
+        <v>10</v>
+      </c>
+      <c r="D63">
+        <v>8</v>
       </c>
       <c r="E63">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F63">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G63">
         <v>8</v>
       </c>
       <c r="H63">
-        <v>8</v>
-      </c>
-      <c r="I63">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D64" s="6">
+        <v>74</v>
+      </c>
+      <c r="C64" s="6">
+        <v>8</v>
+      </c>
+      <c r="D64">
         <v>8</v>
       </c>
       <c r="E64">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F64">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G64">
         <v>10</v>
       </c>
       <c r="H64">
-        <v>10</v>
-      </c>
-      <c r="I64">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D65" s="6">
-        <v>10</v>
+        <v>76</v>
+      </c>
+      <c r="C65" s="6">
+        <v>10</v>
+      </c>
+      <c r="D65">
+        <v>9</v>
       </c>
       <c r="E65">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F65">
         <v>10</v>
@@ -3132,25 +2493,22 @@
       <c r="H65">
         <v>10</v>
       </c>
-      <c r="I65">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D66" s="6">
-        <v>10</v>
+        <v>78</v>
+      </c>
+      <c r="C66" s="6">
+        <v>10</v>
+      </c>
+      <c r="D66">
+        <v>9</v>
       </c>
       <c r="E66">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F66">
         <v>10</v>
@@ -3159,30 +2517,27 @@
         <v>10</v>
       </c>
       <c r="H66">
-        <v>10</v>
-      </c>
-      <c r="I66">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D67" s="6">
+        <v>80</v>
+      </c>
+      <c r="C67" s="6">
+        <v>10</v>
+      </c>
+      <c r="D67">
         <v>10</v>
       </c>
       <c r="E67">
         <v>10</v>
       </c>
       <c r="F67">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G67">
         <v>9</v>
@@ -3190,51 +2545,45 @@
       <c r="H67">
         <v>9</v>
       </c>
-      <c r="I67">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D68" s="6">
+        <v>82</v>
+      </c>
+      <c r="C68" s="6">
+        <v>10</v>
+      </c>
+      <c r="D68">
         <v>10</v>
       </c>
       <c r="E68">
         <v>10</v>
       </c>
       <c r="F68">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G68">
         <v>9</v>
       </c>
       <c r="H68">
-        <v>9</v>
-      </c>
-      <c r="I68">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D69" s="6">
-        <v>10</v>
+        <v>84</v>
+      </c>
+      <c r="C69" s="6">
+        <v>10</v>
+      </c>
+      <c r="D69">
+        <v>9</v>
       </c>
       <c r="E69">
         <v>9</v>
@@ -3246,30 +2595,27 @@
         <v>9</v>
       </c>
       <c r="H69">
-        <v>9</v>
-      </c>
-      <c r="I69">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D70" s="6">
-        <v>9</v>
+        <v>86</v>
+      </c>
+      <c r="C70" s="6">
+        <v>9</v>
+      </c>
+      <c r="D70">
+        <v>8</v>
       </c>
       <c r="E70">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F70">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G70">
         <v>8</v>
@@ -3277,50 +2623,44 @@
       <c r="H70">
         <v>8</v>
       </c>
-      <c r="I70">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D71" s="6">
-        <v>10</v>
+        <v>88</v>
+      </c>
+      <c r="C71" s="6">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>8</v>
       </c>
       <c r="E71">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F71">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G71">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H71">
-        <v>10</v>
-      </c>
-      <c r="I71">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D72" s="6">
+        <v>90</v>
+      </c>
+      <c r="C72" s="6">
+        <v>10</v>
+      </c>
+      <c r="D72">
         <v>10</v>
       </c>
       <c r="E72">
@@ -3330,54 +2670,48 @@
         <v>10</v>
       </c>
       <c r="G72">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H72">
-        <v>9</v>
-      </c>
-      <c r="I72">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D73" s="6">
+        <v>92</v>
+      </c>
+      <c r="C73" s="6">
         <v>7</v>
       </c>
-      <c r="E73">
+      <c r="D73">
         <v>7</v>
       </c>
+      <c r="F73">
+        <v>9</v>
+      </c>
       <c r="G73">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H73">
-        <v>8</v>
-      </c>
-      <c r="I73">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D74" s="6">
+        <v>94</v>
+      </c>
+      <c r="C74" s="6">
         <v>7</v>
       </c>
+      <c r="D74">
+        <v>10</v>
+      </c>
       <c r="E74">
         <v>10</v>
       </c>
@@ -3385,120 +2719,108 @@
         <v>10</v>
       </c>
       <c r="G74">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H74">
         <v>9</v>
       </c>
-      <c r="I74">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D75" s="6">
-        <v>10</v>
+        <v>96</v>
+      </c>
+      <c r="C75" s="6">
+        <v>10</v>
+      </c>
+      <c r="D75">
+        <v>9</v>
       </c>
       <c r="E75">
         <v>9</v>
       </c>
       <c r="F75">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G75">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H75">
         <v>9</v>
       </c>
-      <c r="I75">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D76" s="6">
+        <v>98</v>
+      </c>
+      <c r="C76" s="6">
+        <v>8</v>
+      </c>
+      <c r="D76">
         <v>8</v>
       </c>
       <c r="E76">
         <v>8</v>
       </c>
       <c r="F76">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G76">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H76">
-        <v>8</v>
-      </c>
-      <c r="I76">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D77" s="6">
+        <v>51</v>
+      </c>
+      <c r="C77" s="6">
+        <v>9</v>
+      </c>
+      <c r="D77">
         <v>9</v>
       </c>
       <c r="E77">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F77">
         <v>10</v>
       </c>
       <c r="G77">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H77">
         <v>9</v>
       </c>
-      <c r="I77">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D78" s="6">
-        <v>9</v>
+        <v>53</v>
+      </c>
+      <c r="C78" s="6">
+        <v>9</v>
+      </c>
+      <c r="D78">
+        <v>8</v>
       </c>
       <c r="E78">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F78">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G78">
         <v>8</v>
@@ -3506,54 +2828,48 @@
       <c r="H78">
         <v>8</v>
       </c>
-      <c r="I78">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D79" s="6">
-        <v>10</v>
+        <v>55</v>
+      </c>
+      <c r="C79" s="6">
+        <v>10</v>
+      </c>
+      <c r="D79">
+        <v>9</v>
       </c>
       <c r="E79">
         <v>9</v>
       </c>
       <c r="F79">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G79">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H79">
         <v>9</v>
       </c>
-      <c r="I79">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D80" s="6">
+        <v>57</v>
+      </c>
+      <c r="C80" s="6">
+        <v>10</v>
+      </c>
+      <c r="D80">
         <v>10</v>
       </c>
       <c r="E80">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F80">
         <v>8</v>
@@ -3564,22 +2880,19 @@
       <c r="H80">
         <v>8</v>
       </c>
-      <c r="I80">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D81" s="6">
-        <v>10</v>
+        <v>59</v>
+      </c>
+      <c r="C81" s="6">
+        <v>10</v>
+      </c>
+      <c r="D81">
+        <v>9</v>
       </c>
       <c r="E81">
         <v>9</v>
@@ -3591,85 +2904,76 @@
         <v>9</v>
       </c>
       <c r="H81">
-        <v>9</v>
-      </c>
-      <c r="I81">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D82" s="6">
+        <v>61</v>
+      </c>
+      <c r="C82" s="6">
+        <v>8</v>
+      </c>
+      <c r="D82">
         <v>8</v>
       </c>
       <c r="E82">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F82">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G82">
         <v>8</v>
       </c>
       <c r="H82">
-        <v>8</v>
-      </c>
-      <c r="I82">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D83" s="6">
-        <v>8</v>
+        <v>63</v>
+      </c>
+      <c r="C83" s="6">
+        <v>8</v>
+      </c>
+      <c r="D83">
+        <v>9</v>
       </c>
       <c r="E83">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F83">
         <v>8</v>
       </c>
       <c r="G83">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H83">
-        <v>9</v>
-      </c>
-      <c r="I83">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D84" s="6">
+        <v>65</v>
+      </c>
+      <c r="C84" s="6">
+        <v>9</v>
+      </c>
+      <c r="D84">
         <v>9</v>
       </c>
       <c r="E84">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F84">
         <v>8</v>
@@ -3680,77 +2984,68 @@
       <c r="H84">
         <v>8</v>
       </c>
-      <c r="I84">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D85" s="6">
-        <v>9</v>
+        <v>67</v>
+      </c>
+      <c r="C85" s="6">
+        <v>9</v>
+      </c>
+      <c r="D85">
+        <v>10</v>
       </c>
       <c r="E85">
         <v>10</v>
       </c>
       <c r="F85">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G85">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H85">
-        <v>10</v>
-      </c>
-      <c r="I85">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D86" s="6">
+        <v>69</v>
+      </c>
+      <c r="C86" s="6">
+        <v>9</v>
+      </c>
+      <c r="D86">
         <v>9</v>
       </c>
       <c r="E86">
         <v>9</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>9</v>
       </c>
       <c r="H86">
-        <v>9</v>
-      </c>
-      <c r="I86">
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D87" s="6">
-        <v>10</v>
+        <v>71</v>
+      </c>
+      <c r="C87" s="6">
+        <v>10</v>
+      </c>
+      <c r="D87">
+        <v>9</v>
       </c>
       <c r="E87">
         <v>9</v>
@@ -3764,25 +3059,22 @@
       <c r="H87">
         <v>9</v>
       </c>
-      <c r="I87">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D88" s="6">
-        <v>8</v>
+        <v>73</v>
+      </c>
+      <c r="C88" s="6">
+        <v>8</v>
+      </c>
+      <c r="D88">
+        <v>7</v>
       </c>
       <c r="E88">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F88">
         <v>8</v>
@@ -3793,28 +3085,25 @@
       <c r="H88">
         <v>8</v>
       </c>
-      <c r="I88">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D89" s="6">
+        <v>75</v>
+      </c>
+      <c r="C89" s="6">
+        <v>8</v>
+      </c>
+      <c r="D89">
         <v>8</v>
       </c>
       <c r="E89">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F89">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G89">
         <v>8</v>
@@ -3822,21 +3111,18 @@
       <c r="H89">
         <v>8</v>
       </c>
-      <c r="I89">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D90" s="6">
+        <v>77</v>
+      </c>
+      <c r="C90" s="6">
+        <v>8</v>
+      </c>
+      <c r="D90">
         <v>8</v>
       </c>
       <c r="E90">
@@ -3851,51 +3137,45 @@
       <c r="H90">
         <v>8</v>
       </c>
-      <c r="I90">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D91" s="6">
+        <v>79</v>
+      </c>
+      <c r="C91" s="6">
+        <v>9</v>
+      </c>
+      <c r="D91">
         <v>9</v>
       </c>
       <c r="E91">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F91">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G91">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H91">
-        <v>8</v>
-      </c>
-      <c r="I91">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D92" s="6">
-        <v>9</v>
+        <v>81</v>
+      </c>
+      <c r="C92" s="6">
+        <v>9</v>
+      </c>
+      <c r="D92">
+        <v>8</v>
       </c>
       <c r="E92">
         <v>8</v>
@@ -3904,55 +3184,49 @@
         <v>8</v>
       </c>
       <c r="G92">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H92">
-        <v>7</v>
-      </c>
-      <c r="I92">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D93" s="6">
-        <v>9</v>
+        <v>83</v>
+      </c>
+      <c r="C93" s="6">
+        <v>9</v>
+      </c>
+      <c r="D93">
+        <v>8</v>
       </c>
       <c r="E93">
         <v>8</v>
       </c>
       <c r="F93">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G93">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H93">
         <v>8</v>
       </c>
-      <c r="I93">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D94" s="6">
+        <v>85</v>
+      </c>
+      <c r="C94" s="6">
+        <v>8</v>
+      </c>
+      <c r="D94">
         <v>8</v>
       </c>
       <c r="E94">
@@ -3962,28 +3236,25 @@
         <v>8</v>
       </c>
       <c r="G94">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H94">
-        <v>9</v>
-      </c>
-      <c r="I94">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D95" s="6">
+        <v>87</v>
+      </c>
+      <c r="C95" s="6">
         <v>7</v>
       </c>
+      <c r="D95">
+        <v>8</v>
+      </c>
       <c r="E95">
         <v>8</v>
       </c>
@@ -3996,132 +3267,117 @@
       <c r="H95">
         <v>8</v>
       </c>
-      <c r="I95">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D96" s="6">
-        <v>9</v>
+        <v>89</v>
+      </c>
+      <c r="C96" s="6">
+        <v>9</v>
+      </c>
+      <c r="D96">
+        <v>8</v>
       </c>
       <c r="E96">
         <v>8</v>
       </c>
       <c r="F96">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G96">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H96">
         <v>8</v>
       </c>
-      <c r="I96">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D97" s="6">
-        <v>9</v>
+        <v>91</v>
+      </c>
+      <c r="C97" s="6">
+        <v>9</v>
+      </c>
+      <c r="D97">
+        <v>10</v>
       </c>
       <c r="E97">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F97">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G97">
         <v>8</v>
       </c>
       <c r="H97">
-        <v>8</v>
-      </c>
-      <c r="I97">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D98" s="6">
+        <v>93</v>
+      </c>
+      <c r="C98" s="6">
+        <v>9</v>
+      </c>
+      <c r="D98">
         <v>9</v>
       </c>
       <c r="E98">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F98">
         <v>8</v>
       </c>
-      <c r="G98">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D99" s="6">
+        <v>95</v>
+      </c>
+      <c r="C99" s="6">
+        <v>9</v>
+      </c>
+      <c r="D99">
         <v>9</v>
       </c>
       <c r="E99">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F99">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G99">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H99">
-        <v>8</v>
-      </c>
-      <c r="I99">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D100" s="6">
-        <v>9</v>
+        <v>97</v>
+      </c>
+      <c r="C100" s="6">
+        <v>9</v>
+      </c>
+      <c r="D100">
+        <v>8</v>
       </c>
       <c r="E100">
         <v>8</v>
@@ -4135,21 +3391,18 @@
       <c r="H100">
         <v>8</v>
       </c>
-      <c r="I100">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D101" s="6">
+        <v>99</v>
+      </c>
+      <c r="C101" s="6">
+        <v>8</v>
+      </c>
+      <c r="D101">
         <v>8</v>
       </c>
       <c r="E101">
@@ -4159,59 +3412,53 @@
         <v>8</v>
       </c>
       <c r="G101">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H101">
-        <v>9</v>
-      </c>
-      <c r="I101">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D102" s="6">
-        <v>10</v>
+        <v>100</v>
+      </c>
+      <c r="C102" s="6">
+        <v>10</v>
+      </c>
+      <c r="D102">
+        <v>9</v>
       </c>
       <c r="E102">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F102">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G102">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H102">
         <v>8</v>
       </c>
-      <c r="I102">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D103" s="6">
-        <v>10</v>
+        <v>102</v>
+      </c>
+      <c r="C103" s="6">
+        <v>10</v>
+      </c>
+      <c r="D103">
+        <v>9</v>
       </c>
       <c r="E103">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F103">
         <v>8</v>
@@ -4222,28 +3469,25 @@
       <c r="H103">
         <v>8</v>
       </c>
-      <c r="I103">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D104" s="6">
-        <v>10</v>
+        <v>104</v>
+      </c>
+      <c r="C104" s="6">
+        <v>10</v>
+      </c>
+      <c r="D104">
+        <v>9</v>
       </c>
       <c r="E104">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F104">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G104">
         <v>9</v>
@@ -4251,54 +3495,48 @@
       <c r="H104">
         <v>9</v>
       </c>
-      <c r="I104">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D105" s="6">
+        <v>106</v>
+      </c>
+      <c r="C105" s="6">
+        <v>10</v>
+      </c>
+      <c r="D105">
         <v>10</v>
       </c>
       <c r="E105">
         <v>10</v>
       </c>
       <c r="F105">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G105">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H105">
-        <v>10</v>
-      </c>
-      <c r="I105">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D106" s="6">
+        <v>108</v>
+      </c>
+      <c r="C106" s="6">
+        <v>10</v>
+      </c>
+      <c r="D106">
         <v>10</v>
       </c>
       <c r="E106">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F106">
         <v>9</v>
@@ -4307,24 +3545,21 @@
         <v>9</v>
       </c>
       <c r="H106">
-        <v>9</v>
-      </c>
-      <c r="I106">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D107" s="6">
-        <v>10</v>
+        <v>110</v>
+      </c>
+      <c r="C107" s="6">
+        <v>10</v>
+      </c>
+      <c r="D107">
+        <v>8</v>
       </c>
       <c r="E107">
         <v>8</v>
@@ -4338,28 +3573,25 @@
       <c r="H107">
         <v>8</v>
       </c>
-      <c r="I107">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D108" s="6">
+        <v>112</v>
+      </c>
+      <c r="C108" s="6">
+        <v>10</v>
+      </c>
+      <c r="D108">
         <v>10</v>
       </c>
       <c r="E108">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F108">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G108">
         <v>9</v>
@@ -4367,28 +3599,25 @@
       <c r="H108">
         <v>9</v>
       </c>
-      <c r="I108">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D109" s="6">
+        <v>114</v>
+      </c>
+      <c r="C109" s="6">
+        <v>10</v>
+      </c>
+      <c r="D109">
         <v>10</v>
       </c>
       <c r="E109">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F109">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G109">
         <v>8</v>
@@ -4396,141 +3625,126 @@
       <c r="H109">
         <v>8</v>
       </c>
-      <c r="I109">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D110" s="6">
+        <v>116</v>
+      </c>
+      <c r="C110" s="6">
+        <v>10</v>
+      </c>
+      <c r="D110">
         <v>10</v>
       </c>
       <c r="E110">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F110">
         <v>8</v>
       </c>
       <c r="G110">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H110">
         <v>9</v>
       </c>
-      <c r="I110">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="D111" s="6">
+        <v>118</v>
+      </c>
+      <c r="C111" s="6">
+        <v>10</v>
+      </c>
+      <c r="D111">
         <v>10</v>
       </c>
       <c r="E111">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F111">
         <v>8</v>
       </c>
       <c r="G111">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H111">
-        <v>9</v>
-      </c>
-      <c r="I111">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D112" s="7">
+        <v>120</v>
+      </c>
+      <c r="C112" s="7">
+        <v>10</v>
+      </c>
+      <c r="D112">
         <v>10</v>
       </c>
       <c r="E112">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F112">
         <v>8</v>
       </c>
       <c r="G112">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H112">
         <v>9</v>
       </c>
-      <c r="I112">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D113" s="6">
+        <v>122</v>
+      </c>
+      <c r="C113" s="6">
+        <v>10</v>
+      </c>
+      <c r="D113">
         <v>10</v>
       </c>
       <c r="E113">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F113">
         <v>9</v>
       </c>
       <c r="G113">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H113">
-        <v>10</v>
-      </c>
-      <c r="I113">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="D114" s="6">
+        <v>124</v>
+      </c>
+      <c r="C114" s="6">
+        <v>10</v>
+      </c>
+      <c r="D114">
         <v>10</v>
       </c>
       <c r="E114">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F114">
         <v>8</v>
@@ -4541,28 +3755,25 @@
       <c r="H114">
         <v>8</v>
       </c>
-      <c r="I114">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="D115" s="6">
-        <v>10</v>
+        <v>126</v>
+      </c>
+      <c r="C115" s="6">
+        <v>10</v>
+      </c>
+      <c r="D115">
+        <v>9</v>
       </c>
       <c r="E115">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F115">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G115">
         <v>9</v>
@@ -4570,80 +3781,71 @@
       <c r="H115">
         <v>9</v>
       </c>
-      <c r="I115">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="D116" s="6">
-        <v>10</v>
+        <v>128</v>
+      </c>
+      <c r="C116" s="6">
+        <v>10</v>
+      </c>
+      <c r="D116">
+        <v>9</v>
       </c>
       <c r="E116">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F116">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G116">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H116">
-        <v>8</v>
-      </c>
-      <c r="I116">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D117" s="6">
-        <v>10</v>
+        <v>130</v>
+      </c>
+      <c r="C117" s="6">
+        <v>10</v>
+      </c>
+      <c r="D117">
+        <v>8</v>
       </c>
       <c r="E117">
         <v>8</v>
       </c>
       <c r="F117">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G117">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H117">
         <v>8</v>
       </c>
-      <c r="I117">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D118" s="6">
-        <v>10</v>
+        <v>132</v>
+      </c>
+      <c r="C118" s="6">
+        <v>10</v>
+      </c>
+      <c r="D118">
+        <v>8</v>
       </c>
       <c r="E118">
         <v>8</v>
@@ -4652,27 +3854,24 @@
         <v>8</v>
       </c>
       <c r="G118">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H118">
-        <v>9</v>
-      </c>
-      <c r="I118">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>118</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D119" s="6">
-        <v>10</v>
+        <v>134</v>
+      </c>
+      <c r="C119" s="6">
+        <v>10</v>
+      </c>
+      <c r="D119">
+        <v>9</v>
       </c>
       <c r="E119">
         <v>9</v>
@@ -4686,167 +3885,149 @@
       <c r="H119">
         <v>9</v>
       </c>
-      <c r="I119">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="D120" s="6">
-        <v>9</v>
+        <v>136</v>
+      </c>
+      <c r="C120" s="6">
+        <v>9</v>
+      </c>
+      <c r="D120">
+        <v>10</v>
       </c>
       <c r="E120">
         <v>10</v>
       </c>
       <c r="F120">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G120">
         <v>9</v>
       </c>
       <c r="H120">
-        <v>9</v>
-      </c>
-      <c r="I120">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="D121" s="6">
+        <v>138</v>
+      </c>
+      <c r="C121" s="6">
+        <v>10</v>
+      </c>
+      <c r="D121">
         <v>10</v>
       </c>
       <c r="E121">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F121">
         <v>9</v>
       </c>
       <c r="G121">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H121">
-        <v>10</v>
-      </c>
-      <c r="I121">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D122" s="6">
-        <v>9</v>
+        <v>140</v>
+      </c>
+      <c r="C122" s="6">
+        <v>9</v>
+      </c>
+      <c r="D122">
+        <v>8</v>
       </c>
       <c r="E122">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F122">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G122">
         <v>9</v>
       </c>
       <c r="H122">
-        <v>9</v>
-      </c>
-      <c r="I122">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>122</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="D123" s="6">
-        <v>9</v>
+        <v>142</v>
+      </c>
+      <c r="C123" s="6">
+        <v>9</v>
+      </c>
+      <c r="D123">
+        <v>8</v>
       </c>
       <c r="E123">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F123">
         <v>9</v>
       </c>
       <c r="G123">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H123">
-        <v>8</v>
-      </c>
-      <c r="I123">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="D124" s="6">
+        <v>144</v>
+      </c>
+      <c r="C124" s="6">
+        <v>9</v>
+      </c>
+      <c r="D124">
         <v>9</v>
       </c>
       <c r="E124">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F124">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G124">
         <v>9</v>
       </c>
       <c r="H124">
-        <v>9</v>
-      </c>
-      <c r="I124">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="D125" s="6">
-        <v>8</v>
+        <v>146</v>
+      </c>
+      <c r="C125" s="6">
+        <v>8</v>
+      </c>
+      <c r="D125">
+        <v>9</v>
       </c>
       <c r="E125">
         <v>9</v>
@@ -4855,62 +4036,56 @@
         <v>9</v>
       </c>
       <c r="G125">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H125">
-        <v>10</v>
-      </c>
-      <c r="I125">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="D126" s="6">
-        <v>9</v>
+        <v>148</v>
+      </c>
+      <c r="C126" s="6">
+        <v>9</v>
+      </c>
+      <c r="D126">
+        <v>8</v>
       </c>
       <c r="E126">
         <v>8</v>
       </c>
       <c r="F126">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G126">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H126">
         <v>8</v>
       </c>
-      <c r="I126">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>126</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D127" s="6">
+        <v>101</v>
+      </c>
+      <c r="C127" s="6">
+        <v>8</v>
+      </c>
+      <c r="D127">
         <v>8</v>
       </c>
       <c r="E127">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F127">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G127">
         <v>8</v>
@@ -4918,25 +4093,22 @@
       <c r="H127">
         <v>8</v>
       </c>
-      <c r="I127">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D128" s="6">
+        <v>103</v>
+      </c>
+      <c r="C128" s="6">
+        <v>10</v>
+      </c>
+      <c r="D128">
         <v>10</v>
       </c>
       <c r="E128">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F128">
         <v>9</v>
@@ -4945,30 +4117,27 @@
         <v>9</v>
       </c>
       <c r="H128">
-        <v>9</v>
-      </c>
-      <c r="I128">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D129" s="6">
+        <v>105</v>
+      </c>
+      <c r="C129" s="6">
+        <v>9</v>
+      </c>
+      <c r="D129">
         <v>9</v>
       </c>
       <c r="E129">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F129">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G129">
         <v>9</v>
@@ -4976,25 +4145,22 @@
       <c r="H129">
         <v>9</v>
       </c>
-      <c r="I129">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D130" s="6">
+        <v>107</v>
+      </c>
+      <c r="C130" s="6">
+        <v>9</v>
+      </c>
+      <c r="D130">
         <v>9</v>
       </c>
       <c r="E130">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F130">
         <v>8</v>
@@ -5005,21 +4171,18 @@
       <c r="H130">
         <v>8</v>
       </c>
-      <c r="I130">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D131" s="6">
+        <v>109</v>
+      </c>
+      <c r="C131" s="6">
+        <v>8</v>
+      </c>
+      <c r="D131">
         <v>8</v>
       </c>
       <c r="E131">
@@ -5034,51 +4197,45 @@
       <c r="H131">
         <v>8</v>
       </c>
-      <c r="I131">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="D132" s="6">
+        <v>111</v>
+      </c>
+      <c r="C132" s="6">
+        <v>9</v>
+      </c>
+      <c r="D132">
         <v>9</v>
       </c>
       <c r="E132">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F132">
         <v>8</v>
       </c>
       <c r="G132">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H132">
         <v>9</v>
       </c>
-      <c r="I132">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>132</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D133" s="6">
-        <v>9</v>
+        <v>113</v>
+      </c>
+      <c r="C133" s="6">
+        <v>9</v>
+      </c>
+      <c r="D133">
+        <v>8</v>
       </c>
       <c r="E133">
         <v>8</v>
@@ -5092,28 +4249,25 @@
       <c r="H133">
         <v>8</v>
       </c>
-      <c r="I133">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D134" s="6">
+        <v>115</v>
+      </c>
+      <c r="C134" s="6">
+        <v>9</v>
+      </c>
+      <c r="D134">
         <v>9</v>
       </c>
       <c r="E134">
         <v>9</v>
       </c>
       <c r="F134">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G134">
         <v>8</v>
@@ -5121,25 +4275,22 @@
       <c r="H134">
         <v>8</v>
       </c>
-      <c r="I134">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>134</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D135" s="6">
-        <v>9</v>
+        <v>117</v>
+      </c>
+      <c r="C135" s="6">
+        <v>9</v>
+      </c>
+      <c r="D135">
+        <v>8</v>
       </c>
       <c r="E135">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F135">
         <v>9</v>
@@ -5150,79 +4301,70 @@
       <c r="H135">
         <v>9</v>
       </c>
-      <c r="I135">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D136" s="6">
+        <v>119</v>
+      </c>
+      <c r="C136" s="6">
+        <v>8</v>
+      </c>
+      <c r="D136">
         <v>8</v>
       </c>
       <c r="E136">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F136">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G136">
         <v>8</v>
       </c>
       <c r="H136">
-        <v>8</v>
-      </c>
-      <c r="I136">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="D137" s="6">
+        <v>121</v>
+      </c>
+      <c r="C137" s="6">
+        <v>10</v>
+      </c>
+      <c r="D137">
         <v>10</v>
       </c>
       <c r="E137">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F137">
         <v>9</v>
       </c>
       <c r="G137">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H137">
-        <v>8</v>
-      </c>
-      <c r="I137">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D138" s="6">
+        <v>123</v>
+      </c>
+      <c r="C138" s="6">
+        <v>8</v>
+      </c>
+      <c r="D138">
         <v>8</v>
       </c>
       <c r="E138">
@@ -5237,28 +4379,25 @@
       <c r="H138">
         <v>8</v>
       </c>
-      <c r="I138">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D139" s="6">
-        <v>9</v>
+        <v>125</v>
+      </c>
+      <c r="C139" s="6">
+        <v>9</v>
+      </c>
+      <c r="D139">
+        <v>8</v>
       </c>
       <c r="E139">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F139">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G139">
         <v>8</v>
@@ -5266,57 +4405,51 @@
       <c r="H139">
         <v>8</v>
       </c>
-      <c r="I139">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="D140" s="6">
-        <v>10</v>
+        <v>127</v>
+      </c>
+      <c r="C140" s="6">
+        <v>10</v>
+      </c>
+      <c r="D140">
+        <v>9</v>
       </c>
       <c r="E140">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F140">
         <v>8</v>
       </c>
       <c r="G140">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H140">
-        <v>9</v>
-      </c>
-      <c r="I140">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>140</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="D141" s="6">
-        <v>10</v>
+        <v>129</v>
+      </c>
+      <c r="C141" s="6">
+        <v>10</v>
+      </c>
+      <c r="D141">
+        <v>9</v>
       </c>
       <c r="E141">
         <v>9</v>
       </c>
       <c r="F141">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G141">
         <v>8</v>
@@ -5324,96 +4457,84 @@
       <c r="H141">
         <v>8</v>
       </c>
-      <c r="I141">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D142" s="6">
+        <v>131</v>
+      </c>
+      <c r="C142" s="6">
+        <v>10</v>
+      </c>
+      <c r="D142">
         <v>10</v>
       </c>
       <c r="E142">
         <v>10</v>
       </c>
       <c r="F142">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G142">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H142">
-        <v>10</v>
-      </c>
-      <c r="I142">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>142</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="D143" s="6">
+        <v>133</v>
+      </c>
+      <c r="C143" s="6">
+        <v>10</v>
+      </c>
+      <c r="D143">
         <v>10</v>
       </c>
       <c r="E143">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F143">
         <v>9</v>
       </c>
       <c r="G143">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H143">
         <v>10</v>
       </c>
-      <c r="I143">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="D144" s="6">
-        <v>9</v>
-      </c>
-      <c r="E144">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="C144" s="6">
+        <v>9</v>
+      </c>
+      <c r="D144">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="D145" s="6">
+        <v>137</v>
+      </c>
+      <c r="C145" s="6">
+        <v>9</v>
+      </c>
+      <c r="D145">
         <v>9</v>
       </c>
       <c r="E145">
@@ -5428,25 +4549,22 @@
       <c r="H145">
         <v>9</v>
       </c>
-      <c r="I145">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D146" s="6">
-        <v>10</v>
+        <v>139</v>
+      </c>
+      <c r="C146" s="6">
+        <v>10</v>
+      </c>
+      <c r="D146">
+        <v>9</v>
       </c>
       <c r="E146">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F146">
         <v>8</v>
@@ -5455,53 +4573,47 @@
         <v>8</v>
       </c>
       <c r="H146">
-        <v>8</v>
-      </c>
-      <c r="I146">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="D147" s="6">
-        <v>10</v>
+        <v>141</v>
+      </c>
+      <c r="C147" s="6">
+        <v>10</v>
+      </c>
+      <c r="D147">
+        <v>8</v>
       </c>
       <c r="E147">
         <v>8</v>
       </c>
       <c r="F147">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G147">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H147">
         <v>8</v>
       </c>
-      <c r="I147">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D148" s="6">
-        <v>10</v>
+        <v>143</v>
+      </c>
+      <c r="C148" s="6">
+        <v>10</v>
+      </c>
+      <c r="D148">
+        <v>8</v>
       </c>
       <c r="E148">
         <v>8</v>
@@ -5515,25 +4627,22 @@
       <c r="H148">
         <v>8</v>
       </c>
-      <c r="I148">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>148</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="D149" s="6">
+        <v>145</v>
+      </c>
+      <c r="C149" s="6">
+        <v>10</v>
+      </c>
+      <c r="D149">
         <v>10</v>
       </c>
       <c r="E149">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F149">
         <v>8</v>
@@ -5544,51 +4653,45 @@
       <c r="H149">
         <v>8</v>
       </c>
-      <c r="I149">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>149</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="D150" s="6">
-        <v>10</v>
+        <v>147</v>
+      </c>
+      <c r="C150" s="6">
+        <v>10</v>
+      </c>
+      <c r="D150">
+        <v>9</v>
       </c>
       <c r="E150">
         <v>9</v>
       </c>
       <c r="F150">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G150">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H150">
-        <v>9</v>
-      </c>
-      <c r="I150">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>150</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="D151" s="6">
-        <v>10</v>
+        <v>149</v>
+      </c>
+      <c r="C151" s="6">
+        <v>10</v>
+      </c>
+      <c r="D151">
+        <v>8</v>
       </c>
       <c r="E151">
         <v>8</v>
@@ -5602,94 +4705,85 @@
       <c r="H151">
         <v>8</v>
       </c>
-      <c r="I151">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D152" s="6">
+        <v>150</v>
+      </c>
+      <c r="C152" s="6">
+        <v>10</v>
+      </c>
+      <c r="D152">
         <v>10</v>
       </c>
       <c r="E152">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F152">
         <v>8</v>
       </c>
       <c r="G152">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H152">
-        <v>9</v>
-      </c>
-      <c r="I152">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>152</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="D153" s="6">
-        <v>10</v>
+        <v>151</v>
+      </c>
+      <c r="C153" s="6">
+        <v>10</v>
+      </c>
+      <c r="D153">
+        <v>8</v>
       </c>
       <c r="E153">
         <v>8</v>
       </c>
-      <c r="F153">
+      <c r="G153">
         <v>8</v>
       </c>
       <c r="H153">
-        <v>8</v>
-      </c>
-      <c r="I153">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D154" s="6"/>
-    </row>
-    <row r="155" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D155" s="6"/>
-    </row>
-    <row r="156" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="D156" s="7"/>
-    </row>
-    <row r="157" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D157" s="6"/>
-    </row>
-    <row r="158" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D158" s="6"/>
-    </row>
-    <row r="159" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D159" s="6"/>
-    </row>
-    <row r="160" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D160" s="6"/>
-    </row>
-    <row r="161" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D161" s="6"/>
-    </row>
-    <row r="162" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D162" s="6"/>
-    </row>
-    <row r="163" spans="4:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D163" s="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C154" s="6"/>
+    </row>
+    <row r="155" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C155" s="6"/>
+    </row>
+    <row r="156" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C156" s="7"/>
+    </row>
+    <row r="157" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C157" s="6"/>
+    </row>
+    <row r="158" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C158" s="6"/>
+    </row>
+    <row r="159" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C159" s="6"/>
+    </row>
+    <row r="160" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C160" s="6"/>
+    </row>
+    <row r="161" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C161" s="6"/>
+    </row>
+    <row r="162" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C162" s="6"/>
+    </row>
+    <row r="163" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C163" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/score/电子版作业成绩.xlsx
+++ b/score/电子版作业成绩.xlsx
@@ -909,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F153" sqref="F153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4748,6 +4748,9 @@
       <c r="E153">
         <v>8</v>
       </c>
+      <c r="F153">
+        <v>10</v>
+      </c>
       <c r="G153">
         <v>8</v>
       </c>

--- a/score/电子版作业成绩.xlsx
+++ b/score/电子版作业成绩.xlsx
@@ -909,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F153" sqref="F153"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1048,7 +1048,24 @@
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="6">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
